--- a/sales.xlsx
+++ b/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,10 +601,8 @@
           <t>7561 5687 5184</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9564976169</t>
-        </is>
+      <c r="F2" t="n">
+        <v>9564976169</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -649,10 +647,8 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>8703</t>
-        </is>
+      <c r="P2" t="n">
+        <v>8703</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -700,6 +696,130 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>2025-06-18 17:32:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BILL-2025-0020</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ME/GST/25-26/016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20/06/2025</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HASINA BIBI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>848044161342</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SHAHEED NAGAR, RONAI, Raniganj M, Barddhaman, Raniganj, West Bengal, 713347</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>MD9120EP3GV9617084</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Riji Xpress</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>KH231200774511</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ZPM37TKL</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>273NE5TCE11S93371</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Eastman  12 Months EM 13012ER 130AHAh</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>8703</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>E-RICKSHAW RIJI XPRESS CHASSIS NO-MD9120EP3GV9617084 MOTOR NO-KH231200774511 WITH Eastman  12 Months EM 13012ER 130AH</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1696095.14</v>
+      </c>
+      <c r="S3" t="n">
+        <v>42402.38</v>
+      </c>
+      <c r="T3" t="n">
+        <v>42402.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1780899.9</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Seventeen Lakh Eighty Thousand Eight Hundred Ninety Nine Rupees and Eighty Nine Paise</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>CGST+SGST</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>MINATO ENTERPRISE</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>generated_invoices\Bill_HASINA_BIBI_20250620_BILL_2025_0020.docx</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2025-06-20 02:49:08</t>
         </is>
       </c>
     </row>
